--- a/Examples/GroupDocs.Watermark-for-Java/Data/Source/sample.xlsx
+++ b/Examples/GroupDocs.Watermark-for-Java/Data/Source/sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -23,13 +24,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,17 +56,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -72,7 +173,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -94,7 +195,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -108,11 +209,10 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4648200" y="295275"/>
-          <a:ext cx="1143260" cy="1143260"/>
+          <a:ext cx="1143000" cy="1143000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -138,7 +238,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -152,11 +252,104 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1733550"/>
-          <a:ext cx="4876190" cy="4619048"/>
+          <a:ext cx="4876800" cy="4619625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="752475" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr fromWordArt="1" wrap="none">
+          <a:prstTxWarp prst="textPlain"/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr sz="4200" kern="10" spc="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Test watermark</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2847975" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -450,22 +643,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>